--- a/Modules/Resistor Values.xlsx
+++ b/Modules/Resistor Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackson\go\src\github.com\jax-b\ModulerKTNE\Modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99BB471-8729-47D3-A4C2-B17D554FEFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E85E1C-92BB-4121-9EDE-200207C2E348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3930" windowWidth="32640" windowHeight="15615" xr2:uid="{430FC1C9-00EB-48AB-ABE0-B528AB2F3BA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{430FC1C9-00EB-48AB-ABE0-B528AB2F3BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>R1</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve">Actual </t>
+  </si>
+  <si>
+    <t>Closest Resistor Value</t>
+  </si>
+  <si>
+    <t>Caluculated Actual</t>
   </si>
 </sst>
 </file>
@@ -439,15 +445,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3D2494-D803-4758-9D8F-D17FCCB197FA}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -472,153 +485,217 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
+        <v>5600</v>
+      </c>
+      <c r="C2">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>5600</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
         <f>D2*C2/(B2+C2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>ROUND(E2/D2 * 1023, 0)</f>
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>F2/1023</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="e">
+        <f>ROUND(D2*C2/(I2+C2)/D2 * 1023, 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" t="e">
+        <f>J2/1023</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
+        <v>5600</v>
+      </c>
+      <c r="C3">
         <v>621.00542560553504</v>
       </c>
-      <c r="C3">
-        <v>5600</v>
-      </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">D3*C3/(B3+C3)</f>
-        <v>4.5008801768203819</v>
+        <f>D3*C3/(B3+C3)</f>
+        <v>0.49911982317961739</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="1">ROUND(E3/D3 * 1023, 0)</f>
-        <v>921</v>
+        <f t="shared" ref="F3:F11" si="0">ROUND(E3/D3 * 1023, 0)</f>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>0.9</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">F3/1023</f>
-        <v>0.90029325513196479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H11" si="1">F3/1023</f>
+        <v>9.9706744868035185E-2</v>
+      </c>
+      <c r="I3">
+        <v>620</v>
+      </c>
+      <c r="J3">
+        <f>ROUND(D3*B3/(I3+C3)/D3 * 1023, 0)</f>
+        <v>4616</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="2">J3/1023</f>
+        <v>4.5122189638318675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
+        <v>5600</v>
+      </c>
+      <c r="C4">
         <v>1395.1183768115925</v>
       </c>
-      <c r="C4">
-        <v>5600</v>
-      </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4">
+        <f>D4*C4/(B4+C4)</f>
+        <v>0.99720855435150901</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>4.0027914456484908</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>819</v>
+        <v>204</v>
       </c>
       <c r="G4">
         <v>0.8</v>
       </c>
       <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.19941348973607037</v>
+      </c>
+      <c r="I4">
+        <v>1300</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J3:J9" si="3">ROUND(D4*B4/(I4+C4)/D4 * 1023, 0)</f>
+        <v>2126</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="2"/>
-        <v>0.80058651026392957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.0782013685239491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
+        <v>5600</v>
+      </c>
+      <c r="C5">
         <v>2388.7413238265017</v>
       </c>
-      <c r="C5">
-        <v>5600</v>
-      </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
+        <f>D5*C5/(B5+C5)</f>
+        <v>1.4950673873380131</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>3.5049326126619866</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>717</v>
+        <v>306</v>
       </c>
       <c r="G5">
         <v>0.7</v>
       </c>
       <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.29912023460410558</v>
+      </c>
+      <c r="I5">
+        <v>2400</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>1196</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="2"/>
-        <v>0.70087976539589447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1691104594330402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
+        <v>5600</v>
+      </c>
+      <c r="C6">
         <v>3733.8533493837103</v>
       </c>
-      <c r="C6">
-        <v>5600</v>
-      </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
+        <f>D6*C6/(B6+C6)</f>
+        <v>2.0001671387038917</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>2.9998328612961087</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>614</v>
+        <v>409</v>
       </c>
       <c r="G6">
         <v>0.6</v>
       </c>
       <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.39980449657869011</v>
+      </c>
+      <c r="I6">
+        <v>3600</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>781</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="2"/>
-        <v>0.60019550342130989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.76344086021505375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -632,138 +709,194 @@
         <v>5</v>
       </c>
       <c r="E7">
+        <f>D7*C7/(B7+C7)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="G7">
         <v>0.5</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.50048875855327468</v>
+      </c>
+      <c r="I7">
+        <v>5600</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
         <v>0.50048875855327468</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
+        <v>5600</v>
+      </c>
+      <c r="C8">
         <v>8375.0236137617467</v>
       </c>
-      <c r="C8">
-        <v>5600</v>
-      </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
+        <f>D8*C8/(B8+C8)</f>
+        <v>2.9964255679376945</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>2.0035744320623055</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>410</v>
+        <v>613</v>
       </c>
       <c r="G8">
         <v>0.4</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.59921798631476053</v>
+      </c>
+      <c r="I8">
+        <v>8200</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>346</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="2"/>
-        <v>0.40078201368523947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.33822091886608013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
+        <v>5600</v>
+      </c>
+      <c r="C9">
         <v>13065.061076206484</v>
       </c>
-      <c r="C9">
-        <v>5600</v>
-      </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
+        <f>D9*C9/(B9+C9)</f>
+        <v>3.4998709682395126</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.5001290317604878</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>307</v>
+        <v>716</v>
       </c>
       <c r="G9">
         <v>0.3</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.69990224828934511</v>
+      </c>
+      <c r="I9">
+        <v>13000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>0.30009775171065495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.21505376344086022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
+        <v>5600</v>
+      </c>
+      <c r="C10">
         <v>22390.928243324426</v>
       </c>
-      <c r="C10">
-        <v>5600</v>
-      </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
+        <f>D10*C10/(B10+C10)</f>
+        <v>3.9996759036857688</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>1.0003240963142312</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>205</v>
+        <v>818</v>
       </c>
       <c r="G10">
         <v>0.2</v>
       </c>
       <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.79960899315738021</v>
+      </c>
+      <c r="I10">
+        <v>22000</v>
+      </c>
+      <c r="J10">
+        <f>ROUND(D10*B10/(I10+C10)/D10 * 1023, 0)</f>
+        <v>129</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="2"/>
-        <v>0.20039100684261973</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.12609970674486803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>100000</v>
+        <v>5600</v>
       </c>
       <c r="C11">
-        <v>5600</v>
+        <v>1000000</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.26515151515151514</v>
+        <f>D11*C11/(B11+C11)</f>
+        <v>4.9721559268098652</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f>ROUND(E11/D11 * 1023, 0)</f>
+        <v>1017</v>
       </c>
       <c r="G11">
         <v>0.1</v>
       </c>
       <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.99413489736070382</v>
+      </c>
+      <c r="I11">
+        <v>1000000</v>
+      </c>
+      <c r="J11">
+        <f>ROUND(D11*B11/(I11+C11)/D11 * 1023, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="2"/>
-        <v>5.2785923753665691E-2</v>
+        <v>2.9325513196480938E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>